--- a/Outputs/Fish/Family/FINAL_Family_biomass_year.xlsx
+++ b/Outputs/Fish/Family/FINAL_Family_biomass_year.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathonlocal\Desktop\Nature Foundation\CORENA Project\Reef_Monitoring\Outputs\Fish\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathonlocal\Desktop\Nature Foundation\CORENA Project\Reef_Monitoring\Outputs\Fish\Family\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{895F08EF-A72A-4F6F-A7EA-E5C14C8D28DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{99BA310F-E312-438A-AB9C-393256B85E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
@@ -22,9 +22,177 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
   <si>
+    <t>1905.081 ± 970.474</t>
+  </si>
+  <si>
+    <t>339 ± 236.474</t>
+  </si>
+  <si>
+    <t>151.812 ± 73.59</t>
+  </si>
+  <si>
+    <t>320.759 ± 180.956</t>
+  </si>
+  <si>
+    <t>458.473 ± 219.578</t>
+  </si>
+  <si>
+    <t>540.501 ± 193.267</t>
+  </si>
+  <si>
+    <t>434.194 ± 353.339</t>
+  </si>
+  <si>
+    <t>319.363 ± 142.054</t>
+  </si>
+  <si>
+    <t>21.018 ± 23.889</t>
+  </si>
+  <si>
+    <t>78.079 ± 122.625</t>
+  </si>
+  <si>
+    <t>103.884 ± 107.979</t>
+  </si>
+  <si>
+    <t>143.147 ± 195.364</t>
+  </si>
+  <si>
+    <t>34.935 ± 47.075</t>
+  </si>
+  <si>
+    <t>166.138 ± 168.08</t>
+  </si>
+  <si>
+    <t>352.24 ± 702.099</t>
+  </si>
+  <si>
+    <t>2702.972 ± 2098.938</t>
+  </si>
+  <si>
+    <t>1004.039 ± 1074.753</t>
+  </si>
+  <si>
+    <t>1500.078 ± 1321.27</t>
+  </si>
+  <si>
+    <t>2232.442 ± 921.792</t>
+  </si>
+  <si>
+    <t>1675.56 ± 1404.823</t>
+  </si>
+  <si>
+    <t>1271.481 ± 2481.947</t>
+  </si>
+  <si>
+    <t>5.441 ± 9.223</t>
+  </si>
+  <si>
+    <t>2.78 ± 5.956</t>
+  </si>
+  <si>
+    <t>14.254 ± 20.731</t>
+  </si>
+  <si>
+    <t>20.171 ± 38.381</t>
+  </si>
+  <si>
+    <t>30.154 ± 18.528</t>
+  </si>
+  <si>
+    <t>8.574 ± 11.55</t>
+  </si>
+  <si>
+    <t>2.5 ± 4.156</t>
+  </si>
+  <si>
+    <t>495.512 ± 484.644</t>
+  </si>
+  <si>
+    <t>472.675 ± 554.38</t>
+  </si>
+  <si>
+    <t>256.061 ± 197.296</t>
+  </si>
+  <si>
+    <t>446.294 ± 298.648</t>
+  </si>
+  <si>
+    <t>1228.436 ± 949.92</t>
+  </si>
+  <si>
+    <t>343.479 ± 472.995</t>
+  </si>
+  <si>
+    <t>412.935 ± 415.744</t>
+  </si>
+  <si>
+    <t>797.03 ± 1372.817</t>
+  </si>
+  <si>
+    <t>2580.952 ± 4407.815</t>
+  </si>
+  <si>
+    <t>2673.867 ± 3753.235</t>
+  </si>
+  <si>
+    <t>17421.429 ± 34569.576</t>
+  </si>
+  <si>
+    <t>8226.786 ± 15354.373</t>
+  </si>
+  <si>
+    <t>1570.106 ± 3659.5</t>
+  </si>
+  <si>
+    <t>2835.176 ± 7501.171</t>
+  </si>
+  <si>
+    <t>267.321 ± 465.052</t>
+  </si>
+  <si>
+    <t>4583.968 ± 12128.039</t>
+  </si>
+  <si>
+    <t>311.159 ± 823.249</t>
+  </si>
+  <si>
     <t>0 ± 0</t>
   </si>
   <si>
+    <t>349.165 ± 923.803</t>
+  </si>
+  <si>
+    <t>89.578 ± 219.421</t>
+  </si>
+  <si>
+    <t>1074.163 ± 546.715</t>
+  </si>
+  <si>
+    <t>736.099 ± 526.569</t>
+  </si>
+  <si>
+    <t>579.266 ± 350.72</t>
+  </si>
+  <si>
+    <t>1305.291 ± 772.572</t>
+  </si>
+  <si>
+    <t>2277.213 ± 660.86</t>
+  </si>
+  <si>
+    <t>1509.217 ± 696.466</t>
+  </si>
+  <si>
+    <t>891.079 ± 682.788</t>
+  </si>
+  <si>
+    <t>2017 post</t>
+  </si>
+  <si>
+    <t>2017 pre</t>
+  </si>
+  <si>
     <t>Mean Acanthuridae Biomass</t>
   </si>
   <si>
@@ -47,174 +215,6 @@
   </si>
   <si>
     <t>Mean Scaridae Biomass</t>
-  </si>
-  <si>
-    <t>5,715 ± 2,911</t>
-  </si>
-  <si>
-    <t>1,017 ± 0,709</t>
-  </si>
-  <si>
-    <t>0,455 ± 0,221</t>
-  </si>
-  <si>
-    <t>0,962 ± 0,543</t>
-  </si>
-  <si>
-    <t>1,375 ± 0,659</t>
-  </si>
-  <si>
-    <t>1,622 ± 0,58</t>
-  </si>
-  <si>
-    <t>1,303 ± 1,06</t>
-  </si>
-  <si>
-    <t>0,958 ± 0,426</t>
-  </si>
-  <si>
-    <t>0,063 ± 0,072</t>
-  </si>
-  <si>
-    <t>0,234 ± 0,368</t>
-  </si>
-  <si>
-    <t>0,312 ± 0,324</t>
-  </si>
-  <si>
-    <t>0,429 ± 0,586</t>
-  </si>
-  <si>
-    <t>0,105 ± 0,141</t>
-  </si>
-  <si>
-    <t>0,498 ± 0,504</t>
-  </si>
-  <si>
-    <t>1,057 ± 2,106</t>
-  </si>
-  <si>
-    <t>8,109 ± 6,297</t>
-  </si>
-  <si>
-    <t>3,012 ± 3,224</t>
-  </si>
-  <si>
-    <t>4,5 ± 3,964</t>
-  </si>
-  <si>
-    <t>6,697 ± 2,765</t>
-  </si>
-  <si>
-    <t>5,027 ± 4,214</t>
-  </si>
-  <si>
-    <t>3,814 ± 7,446</t>
-  </si>
-  <si>
-    <t>0,016 ± 0,028</t>
-  </si>
-  <si>
-    <t>0,008 ± 0,018</t>
-  </si>
-  <si>
-    <t>0,043 ± 0,062</t>
-  </si>
-  <si>
-    <t>0,061 ± 0,115</t>
-  </si>
-  <si>
-    <t>0,09 ± 0,056</t>
-  </si>
-  <si>
-    <t>0,026 ± 0,035</t>
-  </si>
-  <si>
-    <t>0,007 ± 0,012</t>
-  </si>
-  <si>
-    <t>1,487 ± 1,454</t>
-  </si>
-  <si>
-    <t>1,418 ± 1,663</t>
-  </si>
-  <si>
-    <t>0,768 ± 0,592</t>
-  </si>
-  <si>
-    <t>1,339 ± 0,896</t>
-  </si>
-  <si>
-    <t>3,685 ± 2,85</t>
-  </si>
-  <si>
-    <t>1,03 ± 1,419</t>
-  </si>
-  <si>
-    <t>1,239 ± 1,247</t>
-  </si>
-  <si>
-    <t>2,391 ± 4,118</t>
-  </si>
-  <si>
-    <t>7,743 ± 13,223</t>
-  </si>
-  <si>
-    <t>8,022 ± 11,26</t>
-  </si>
-  <si>
-    <t>52,264 ± 103,709</t>
-  </si>
-  <si>
-    <t>24,68 ± 46,063</t>
-  </si>
-  <si>
-    <t>4,71 ± 10,979</t>
-  </si>
-  <si>
-    <t>8,506 ± 22,504</t>
-  </si>
-  <si>
-    <t>0,802 ± 1,395</t>
-  </si>
-  <si>
-    <t>13,752 ± 36,384</t>
-  </si>
-  <si>
-    <t>0,933 ± 2,47</t>
-  </si>
-  <si>
-    <t>1,047 ± 2,771</t>
-  </si>
-  <si>
-    <t>0,269 ± 0,658</t>
-  </si>
-  <si>
-    <t>3,222 ± 1,64</t>
-  </si>
-  <si>
-    <t>2,208 ± 1,58</t>
-  </si>
-  <si>
-    <t>1,738 ± 1,052</t>
-  </si>
-  <si>
-    <t>3,916 ± 2,318</t>
-  </si>
-  <si>
-    <t>6,832 ± 1,983</t>
-  </si>
-  <si>
-    <t>4,528 ± 2,089</t>
-  </si>
-  <si>
-    <t>2,673 ± 2,048</t>
-  </si>
-  <si>
-    <t>2017 before Irma</t>
-  </si>
-  <si>
-    <t>2017 after Irma</t>
   </si>
 </sst>
 </file>
@@ -539,7 +539,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -723,7 +723,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1083,19 +1083,19 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1103,10 +1103,10 @@
         <v>2016</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E1" s="2">
         <v>2018</v>
@@ -1123,210 +1123,210 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
